--- a/xlsx_files_for_testing_plans_insert_method/test_plan3.xlsx
+++ b/xlsx_files_for_testing_plans_insert_method/test_plan3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0fe71ac194dd8ed/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{BFACA171-7C68-4292-BD09-672B8B97E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E381E692-7FC2-4115-A041-81F13EBF511A}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{BFACA171-7C68-4292-BD09-672B8B97E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A51060FC-1041-482C-B322-9DAC4E75F867}"/>
   <bookViews>
     <workbookView xWindow="2220" yWindow="1185" windowWidth="24465" windowHeight="13830" xr2:uid="{F946F433-AD66-4F40-A79D-B652CB94B1FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>period</t>
   </si>
@@ -42,7 +42,13 @@
     <t>sum</t>
   </si>
   <si>
-    <t>category_id</t>
+    <t>category</t>
+  </si>
+  <si>
+    <t>видача</t>
+  </si>
+  <si>
+    <t>збір</t>
   </si>
 </sst>
 </file>
@@ -415,7 +421,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +448,7 @@
       <c r="B2">
         <v>224000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -453,7 +459,7 @@
       <c r="B3">
         <v>1209000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
